--- a/demo/比选_dict.xlsx
+++ b/demo/比选_dict.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="536">
   <si>
     <t xml:space="preserve"> '50.0'</t>
   </si>
@@ -85,9 +86,6 @@
     <t xml:space="preserve"> '华润电力武隆杨柳坪风电项目'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '满发小时'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '2206.5'</t>
   </si>
   <si>
@@ -109,15 +107,9 @@
     <t xml:space="preserve"> '重庆市武隆区'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '折减率'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '0.73'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '机组数量'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '20'</t>
   </si>
   <si>
@@ -157,9 +149,6 @@
     <t xml:space="preserve"> '120.64'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '海拔高程'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '1100m～2200m'</t>
   </si>
   <si>
@@ -175,9 +164,6 @@
     <t xml:space="preserve"> '0.2'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '山地类型'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '陡坡中山'</t>
   </si>
   <si>
@@ -217,9 +203,6 @@
     <t xml:space="preserve"> '18.39'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '容量系数'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '0.25'</t>
   </si>
   <si>
@@ -274,9 +257,6 @@
     <t xml:space="preserve"> '动态总投资_12'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '选取时段'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '9406#测风塔选取2017年1月1日~2017年12月31日共一年的测风数据作为完整年；9410#测风塔选取2017年1月1日~2017年12月31日的数据作为一个完整年；9411#测风塔选取2016年5月1日~2017年4月30日的数据作为一个完整年'</t>
   </si>
   <si>
@@ -307,19 +287,10 @@
     <t xml:space="preserve"> 'NOx'</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'IEC等级'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'IA'</t>
   </si>
   <si>
-    <t xml:space="preserve"> '上网电量'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '220648.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '推荐轮毂高度'</t>
   </si>
   <si>
     <t xml:space="preserve"> '100'</t>
@@ -388,9 +359,6 @@
     <t>'尾流损失修正系数'</t>
   </si>
   <si>
-    <t>'项目容量'</t>
-  </si>
-  <si>
     <t>'50.0'</t>
   </si>
   <si>
@@ -400,9 +368,6 @@
     <t>'陡坡中山'</t>
   </si>
   <si>
-    <t>'WTG数量'</t>
-  </si>
-  <si>
     <t>'3'</t>
   </si>
   <si>
@@ -415,18 +380,12 @@
     <t>'1623#测风塔90m测层风向S；主风能风向S。0064#测风塔90m测层风向S</t>
   </si>
   <si>
-    <t>'容量系数'</t>
-  </si>
-  <si>
     <t>'平均上网电量'</t>
   </si>
   <si>
     <t>'平均尾流损失'</t>
   </si>
   <si>
-    <t>'折减率'</t>
-  </si>
-  <si>
     <t>'0.73'</t>
   </si>
   <si>
@@ -439,9 +398,6 @@
     <t>'折减率备注'</t>
   </si>
   <si>
-    <t>'总上网电量'</t>
-  </si>
-  <si>
     <t>'叶轮直径'</t>
   </si>
   <si>
@@ -475,9 +431,6 @@
     <t>'平均发电量'</t>
   </si>
   <si>
-    <t>'IEC等级'</t>
-  </si>
-  <si>
     <t>'IA'</t>
   </si>
   <si>
@@ -487,9 +440,6 @@
     <t>'1.096'</t>
   </si>
   <si>
-    <t>'海拔高程'</t>
-  </si>
-  <si>
     <t>'1100m～2200m'</t>
   </si>
   <si>
@@ -499,18 +449,12 @@
     <t>'1'</t>
   </si>
   <si>
-    <t>'推荐机位数'</t>
-  </si>
-  <si>
     <t>'20'</t>
   </si>
   <si>
     <t>'尾流修正后的总理论发电量'</t>
   </si>
   <si>
-    <t>'推荐单机容量'</t>
-  </si>
-  <si>
     <t>'2500'</t>
   </si>
   <si>
@@ -520,12 +464,6 @@
     <t>'150'</t>
   </si>
   <si>
-    <t>'满发小时'</t>
-  </si>
-  <si>
-    <t>'总发电量'</t>
-  </si>
-  <si>
     <t>'测风塔风速信息'</t>
   </si>
   <si>
@@ -542,9 +480,6 @@
   </si>
   <si>
     <t>'绿化面积'</t>
-  </si>
-  <si>
-    <t>'改扩建道路_numbers'</t>
   </si>
   <si>
     <t>'弃渣场_排水沟'</t>
@@ -1623,6 +1558,106 @@
   </si>
   <si>
     <t xml:space="preserve"> '税前财务内部收益率_13': '10.2'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '机组数量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '山地类型'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTG方案数量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组数量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '满发小时'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'总发电量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'满发小时'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '海拔高程'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'海拔高程'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'IEC等级'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'IEC等级'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '上网电量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网电量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '推荐轮毂高度'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'推荐轮毂高度'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '选取时段'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '容量系数'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'容量系数'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '折减率'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'折减率'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '东经'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '北纬'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '风功率密度等级'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐单机容量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装机容量'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1667,19 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,15 +1731,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1798,7 +1835,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2056,365 +2093,365 @@
   <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="31.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="5">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <v>12</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>116</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E2">
         <v>685.2</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>54.62</v>
       </c>
       <c r="J2" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="K2">
         <v>23.132694000000001</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>414</v>
+      <c r="M2" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="N2" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>413</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>-2.8</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H3">
         <v>15000</v>
       </c>
       <c r="J3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="N3" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H4">
         <v>0.24</v>
       </c>
       <c r="J4" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="K4" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>26477.72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H5">
         <v>6000</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="M5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="N5" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>176.17</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>513</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H6">
         <v>840.2</v>
       </c>
       <c r="J6" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="K6" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="M6" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>52955.75</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>5.31</v>
       </c>
-      <c r="G7" t="s">
-        <v>173</v>
-      </c>
       <c r="H7">
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="K7">
         <v>2.5</v>
       </c>
       <c r="M7" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="N7" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>70.650000000000006</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H8">
         <v>1344</v>
       </c>
       <c r="J8" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="K8">
         <v>55231.98</v>
       </c>
       <c r="M8" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="N8" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H9">
         <v>1300</v>
       </c>
       <c r="J9" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K9">
         <v>2.65</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10">
+        <v>25.19</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H10">
         <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="K10">
         <v>45.8</v>
       </c>
       <c r="M10" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="N10" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E11">
-        <v>25.19</v>
+        <v>5516.2</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H11">
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="K11">
         <v>5.6</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E12">
-        <v>5516.2</v>
+        <v>-3.8</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H12">
         <v>48.07</v>
       </c>
       <c r="J12" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -2423,132 +2460,132 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13">
-        <v>-3.8</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" t="s">
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="K13">
         <v>723.29</v>
       </c>
       <c r="M13" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="N13" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H14">
         <v>24.48</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="K14">
         <v>18.39</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H15">
         <v>351</v>
       </c>
       <c r="J15" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="K15">
         <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="N15" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>70.650000000000006</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16">
+        <v>220648.4</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H16">
         <v>2848.2</v>
       </c>
       <c r="J16" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="K16">
         <v>8037.58</v>
       </c>
       <c r="M16" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="N16" t="s">
         <v>3</v>
@@ -2556,249 +2593,249 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>52955.75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17">
-        <v>220648.4</v>
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H17">
         <v>29236.81</v>
       </c>
       <c r="J17" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="K17">
         <v>6638.32</v>
       </c>
       <c r="M17" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="N17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="H18">
         <v>3600</v>
       </c>
       <c r="J18" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="K18" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="M18" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="N18" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H19">
         <v>10650</v>
       </c>
       <c r="J19" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="K19">
         <v>1031.05</v>
       </c>
       <c r="M19" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="N19" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H20">
         <v>4776.9799999999996</v>
       </c>
       <c r="J20" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="K20" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="M20" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="N20" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
+        <v>70</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H21">
         <v>520</v>
       </c>
       <c r="J21" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="N21" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="E22">
+        <v>7816.2</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="H22">
         <v>12653.79</v>
       </c>
       <c r="J22" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="K22" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="M22" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="N22" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23">
-        <v>7816.2</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="H23">
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="K23">
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N23" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="K24">
         <v>42.6</v>
@@ -2806,51 +2843,51 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="H25">
         <v>7000</v>
       </c>
       <c r="J25" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="K25" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H26">
         <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="K26">
         <v>0.2</v>
@@ -2858,51 +2895,45 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>156</v>
+        <v>74</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H27">
         <v>1800</v>
       </c>
       <c r="J27" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="K27">
         <v>5283.4</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
       <c r="D28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="E28">
+        <v>302680.7</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="H28">
         <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="K28">
         <v>50</v>
@@ -2910,25 +2941,25 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29">
-        <v>302680.7</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="H29">
         <v>3000</v>
       </c>
       <c r="J29" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="K29">
         <v>20</v>
@@ -2936,77 +2967,77 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="H30">
         <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="K30" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" t="s">
-        <v>164</v>
+        <v>82</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E31">
+        <v>2206.5</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="K31" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>516</v>
       </c>
       <c r="E32">
-        <v>2206.5</v>
+        <v>312649.2</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="H32">
         <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="K32">
         <v>111.334294</v>
@@ -3014,51 +3045,45 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>45.8</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33">
-        <v>312649.2</v>
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H33">
         <v>3000</v>
       </c>
       <c r="J33" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="K33" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H34">
         <v>40</v>
       </c>
       <c r="J34" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="K34">
         <v>66.67</v>
@@ -3066,19 +3091,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35">
-        <v>176.17</v>
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H35">
         <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="K35">
         <v>19588.47</v>
@@ -3086,22 +3117,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H36">
         <v>370.44</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="K36">
         <v>56263.03</v>
@@ -3109,19 +3143,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H37">
         <v>14400</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="K37">
         <v>120.64</v>
@@ -3129,19 +3169,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J38" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="K38">
         <v>762.62</v>
@@ -3149,39 +3189,39 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H39">
         <v>25633.4</v>
       </c>
       <c r="J39" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="K39" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="H40">
         <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="K40">
         <v>33.33</v>
@@ -3189,19 +3229,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H41">
         <v>2.5</v>
       </c>
       <c r="J41" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="K41">
         <v>4754.32</v>
@@ -3209,19 +3249,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H42">
         <v>10924.4</v>
       </c>
       <c r="J42" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -3229,19 +3269,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="H43">
         <v>0.04</v>
       </c>
       <c r="J43" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="K43">
         <v>11392.64</v>
@@ -3249,261 +3289,255 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H44">
         <v>600</v>
       </c>
       <c r="J44" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="K44">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="K45">
         <v>2206.5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46">
-        <v>45.8</v>
+      <c r="A46" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="H46">
         <v>1281.67</v>
       </c>
       <c r="J46" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47">
-        <v>39.340000000000003</v>
+      <c r="A47" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="H47">
         <v>1200</v>
       </c>
       <c r="J47" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="K47" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>83</v>
+      <c r="A48" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="J48" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="K48" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>84</v>
+      <c r="A49" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H49">
         <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="K49">
         <v>436.96</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>86</v>
+      <c r="A50" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="H50">
         <v>1814.76</v>
       </c>
       <c r="J50" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="K50">
         <v>220648.4</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>88</v>
+      <c r="A51" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="H51">
         <v>16317.15</v>
       </c>
       <c r="J51" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="K51">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>90</v>
+      <c r="A52" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="H52">
         <v>380</v>
       </c>
       <c r="J52" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="K52">
         <v>570.13</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>92</v>
+      <c r="A53" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H53">
         <v>1105.19</v>
       </c>
       <c r="J53" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54">
-        <v>26477.72</v>
+      <c r="A54" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="H54">
         <v>1250</v>
       </c>
       <c r="J54" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="K54" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>95</v>
+      <c r="A55" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>97</v>
+      <c r="A56" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H56">
         <v>9553.9599999999991</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>99</v>
+      <c r="A57" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="H57">
         <v>546.22</v>
@@ -3511,27 +3545,27 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="H59">
         <v>3.2</v>
@@ -3539,13 +3573,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>39.340000000000003</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -3553,13 +3587,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="H61">
         <v>28840</v>
@@ -3567,13 +3601,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="H62">
         <v>50.4</v>
@@ -3581,13 +3615,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H63">
         <v>4500</v>
@@ -3595,141 +3629,159 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>526</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="H64">
         <v>80000</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
       <c r="G65" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="H65">
         <v>47.6</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="H66">
         <v>1425</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="H67">
         <v>10500</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="H68">
         <v>5.6</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H69">
         <v>800000</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H70">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H72">
         <v>29.52</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="H73">
         <v>2880</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="H74">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="H75">
         <v>5040</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="H76">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="H77">
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="H78">
         <v>170.4</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="H79">
         <v>900</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="H80">
         <v>70</v>
@@ -3737,7 +3789,7 @@
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="H81">
         <v>105</v>
@@ -3745,7 +3797,7 @@
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="H82">
         <v>23884.9</v>
@@ -3753,7 +3805,7 @@
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="H83">
         <v>1666.45</v>
@@ -3761,7 +3813,7 @@
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="H84">
         <v>100.23</v>
@@ -3769,15 +3821,15 @@
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="H85" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H86">
         <v>2.38</v>
@@ -3785,7 +3837,7 @@
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H87">
         <v>475</v>
@@ -3793,7 +3845,7 @@
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H88">
         <v>20</v>
@@ -3801,7 +3853,7 @@
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -3809,7 +3861,7 @@
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G90" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="H90">
         <v>3000</v>
@@ -3817,7 +3869,7 @@
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G91" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="H91">
         <v>60</v>
@@ -3825,7 +3877,7 @@
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G92" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H92">
         <v>1400</v>
@@ -3833,7 +3885,7 @@
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="H93">
         <v>100000</v>
@@ -3841,7 +3893,7 @@
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G94" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="H94">
         <v>230040</v>
@@ -3849,7 +3901,7 @@
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="H95">
         <v>108000</v>
@@ -3857,7 +3909,7 @@
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G96" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3865,7 +3917,7 @@
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G97" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="H97">
         <v>7500</v>
@@ -3873,7 +3925,7 @@
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G98" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="H98">
         <v>480</v>
@@ -3881,15 +3933,15 @@
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G99" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="H99" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G100" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="H100">
         <v>6.18</v>
@@ -3897,7 +3949,7 @@
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="H101">
         <v>1092.4000000000001</v>
@@ -3905,7 +3957,7 @@
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G102" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="H102">
         <v>28661.88</v>
@@ -3913,7 +3965,7 @@
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G103" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="H103">
         <v>6000</v>
@@ -3921,7 +3973,7 @@
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="H104">
         <v>1.25</v>
@@ -3929,7 +3981,7 @@
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -3937,7 +3989,7 @@
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -3945,7 +3997,7 @@
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G107" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="H107">
         <v>475</v>
@@ -3953,7 +4005,7 @@
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="H108">
         <v>12</v>
@@ -3961,7 +4013,7 @@
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G109" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="H109">
         <v>3750</v>
@@ -3969,7 +4021,7 @@
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="H110">
         <v>1250</v>
@@ -3977,7 +4029,7 @@
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G111" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="H111">
         <v>4776.9799999999996</v>
@@ -3985,7 +4037,7 @@
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G112" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="H112">
         <v>112</v>
@@ -3993,7 +4045,7 @@
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G113" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="H113">
         <v>5.25</v>
@@ -4001,7 +4053,7 @@
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G114" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="H114">
         <v>100</v>
@@ -4009,7 +4061,7 @@
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G115" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H115">
         <v>5000</v>
@@ -4017,7 +4069,7 @@
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G116" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="H116">
         <v>26</v>
@@ -4025,7 +4077,7 @@
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G117" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="H117">
         <v>1200</v>
@@ -4033,7 +4085,7 @@
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G118" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="H118">
         <v>1500</v>
@@ -4041,7 +4093,7 @@
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G119" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H119">
         <v>3600</v>
@@ -4049,7 +4101,7 @@
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G120" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="H120">
         <v>6</v>
@@ -4057,7 +4109,7 @@
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G121" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="H121">
         <v>3000</v>
@@ -4065,7 +4117,7 @@
     </row>
     <row r="122" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G122" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="H122">
         <v>2197.2399999999998</v>
@@ -4073,7 +4125,7 @@
     </row>
     <row r="123" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G123" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="H123">
         <v>20600</v>
@@ -4081,7 +4133,7 @@
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G124" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="H124">
         <v>2350</v>
@@ -4089,7 +4141,7 @@
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G125" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="H125">
         <v>352</v>
@@ -4097,7 +4149,7 @@
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="H126">
         <v>100800</v>
@@ -4105,7 +4157,7 @@
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G127" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="H127">
         <v>10500</v>
@@ -4113,7 +4165,7 @@
     </row>
     <row r="128" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G128" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="H128">
         <v>16947.86</v>
@@ -4121,7 +4173,7 @@
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G129" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H129">
         <v>1000</v>
@@ -4129,15 +4181,15 @@
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G131" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="H131">
         <v>510</v>
@@ -4145,7 +4197,7 @@
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4153,7 +4205,7 @@
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G133" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="H133">
         <v>10400</v>
@@ -4161,7 +4213,7 @@
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G134" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="H134">
         <v>50</v>
@@ -4169,7 +4221,7 @@
     </row>
     <row r="135" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="H135">
         <v>42.6</v>
@@ -4177,7 +4229,7 @@
     </row>
     <row r="136" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G136" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="H136">
         <v>142.41</v>
@@ -4185,7 +4237,7 @@
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="H137">
         <v>16595.8</v>
@@ -4193,15 +4245,15 @@
     </row>
     <row r="138" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G138" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="H138" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G139" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H139">
         <v>5400</v>
@@ -4209,7 +4261,7 @@
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G140" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="H140">
         <v>50</v>
@@ -4217,7 +4269,7 @@
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="H141">
         <v>351</v>
@@ -4225,7 +4277,7 @@
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G142" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -4233,7 +4285,7 @@
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G143" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="H143">
         <v>153360</v>
@@ -4241,7 +4293,7 @@
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G144" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="H144">
         <v>3040</v>
@@ -4249,7 +4301,7 @@
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G145" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="H145">
         <v>6283.19</v>
@@ -4257,7 +4309,7 @@
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G146" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H146">
         <v>1008</v>
@@ -4265,7 +4317,7 @@
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G147" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="H147">
         <v>126000</v>
@@ -4273,7 +4325,7 @@
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G148" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="H148">
         <v>18000</v>
@@ -4281,7 +4333,7 @@
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G149" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -4289,7 +4341,7 @@
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G150" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="H150">
         <v>6500</v>
@@ -4297,15 +4349,15 @@
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G151" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="H151" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G152" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="H152">
         <v>800</v>
@@ -4313,15 +4365,15 @@
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G153" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="H153" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G154" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="H154">
         <v>520</v>
@@ -4329,7 +4381,7 @@
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G155" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="H155">
         <v>6</v>
@@ -4337,7 +4389,7 @@
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G156" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="H156">
         <v>8</v>
@@ -4345,7 +4397,7 @@
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G157" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -4353,7 +4405,7 @@
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G158" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="H158">
         <v>789150</v>
@@ -4361,7 +4413,7 @@
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G159" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="H159">
         <v>22929.5</v>
@@ -4369,7 +4421,7 @@
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G160" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H160">
         <v>14910</v>
@@ -4377,7 +4429,7 @@
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G161" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="H161">
         <v>350</v>
@@ -4385,7 +4437,7 @@
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G162" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -4393,7 +4445,7 @@
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G163" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H163">
         <v>1800</v>
@@ -4401,7 +4453,7 @@
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G164" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="H164">
         <v>1.4</v>
@@ -4409,7 +4461,7 @@
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G165" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="H165">
         <v>475</v>
@@ -4417,7 +4469,7 @@
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G166" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="H166">
         <v>707058.69</v>
@@ -4425,7 +4477,7 @@
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G167" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="H167">
         <v>1032.2</v>
@@ -4433,7 +4485,7 @@
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G168" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="H168">
         <v>554280</v>
@@ -4441,7 +4493,7 @@
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G169" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H169">
         <v>200</v>
@@ -4449,7 +4501,7 @@
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G170" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="H170">
         <v>350</v>
@@ -4457,7 +4509,7 @@
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G171" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="H171">
         <v>5400</v>
@@ -4465,7 +4517,7 @@
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G172" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="H172">
         <v>400</v>
@@ -4473,7 +4525,7 @@
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G173" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="H173">
         <v>688136.81</v>
@@ -4481,7 +4533,7 @@
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G174" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="H174">
         <v>7698.96</v>
@@ -4489,7 +4541,7 @@
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G175" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -4497,15 +4549,15 @@
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G176" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="H176" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G177" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="H177">
         <v>0.2</v>
@@ -4513,15 +4565,15 @@
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G178" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="H178" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G179" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="H179">
         <v>200</v>
@@ -4529,7 +4581,7 @@
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G180" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="H180">
         <v>2600</v>
@@ -4537,7 +4589,7 @@
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G181" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="H181">
         <v>3750</v>
@@ -4545,7 +4597,7 @@
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G182" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="H182">
         <v>0.4</v>
@@ -4553,7 +4605,7 @@
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G183" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="H183">
         <v>150</v>
@@ -4561,7 +4613,7 @@
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G184" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="H184">
         <v>295194.84000000003</v>
@@ -4569,7 +4621,7 @@
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G185" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="H185">
         <v>29601.65</v>
@@ -4577,7 +4629,7 @@
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G186" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="H186">
         <v>25200</v>
@@ -4585,7 +4637,7 @@
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G187" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="H187">
         <v>528</v>
@@ -4593,7 +4645,7 @@
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G188" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -4601,7 +4653,7 @@
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G189" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="H189">
         <v>961.4</v>
@@ -4609,7 +4661,7 @@
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G190" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="H190">
         <v>20</v>
@@ -4617,7 +4669,7 @@
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G191" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="H191">
         <v>10560</v>
@@ -4625,7 +4677,7 @@
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G192" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="H192">
         <v>8240</v>
@@ -4633,7 +4685,7 @@
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G193" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="H193">
         <v>1080</v>
@@ -4641,7 +4693,7 @@
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G194" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="H194">
         <v>4</v>
@@ -4649,7 +4701,7 @@
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G195" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H195">
         <v>4.6100000000000003</v>
@@ -4657,7 +4709,7 @@
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G196" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="H196">
         <v>1000</v>
@@ -4665,7 +4717,7 @@
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G197" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="H197">
         <v>4.8</v>
@@ -4673,7 +4725,7 @@
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G198" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="H198">
         <v>255600</v>
@@ -4681,7 +4733,7 @@
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G199" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="H199">
         <v>14400</v>
@@ -4689,7 +4741,7 @@
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G200" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="H200">
         <v>1002253.53</v>
@@ -4697,7 +4749,7 @@
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G201" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -4705,7 +4757,7 @@
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G202" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="H202">
         <v>613440</v>
@@ -4713,7 +4765,7 @@
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G203" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="H203">
         <v>20</v>
@@ -4721,15 +4773,15 @@
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G204" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H204" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G205" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="H205">
         <v>18000</v>
@@ -4737,7 +4789,7 @@
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G206" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="H206">
         <v>829.79</v>
@@ -4745,7 +4797,7 @@
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G207" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="H207">
         <v>20</v>
@@ -4753,7 +4805,7 @@
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G208" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="H208">
         <v>9553.9599999999991</v>
@@ -4761,7 +4813,7 @@
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G209" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="H209">
         <v>36000</v>
@@ -4769,7 +4821,7 @@
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G210" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="H210">
         <v>852</v>
@@ -4777,7 +4829,7 @@
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G211" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="H211">
         <v>123.6</v>
@@ -4785,7 +4837,7 @@
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G212" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="H212">
         <v>30</v>
@@ -4793,7 +4845,7 @@
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G213" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="H213">
         <v>80000</v>
@@ -4801,7 +4853,7 @@
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G214" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -4809,7 +4861,7 @@
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G215" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="H215">
         <v>5732.38</v>
@@ -4817,7 +4869,7 @@
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G216" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -4825,7 +4877,7 @@
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G217" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H217">
         <v>8</v>
@@ -4833,7 +4885,7 @@
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G218" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -4841,7 +4893,7 @@
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G219" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H219">
         <v>234870</v>
@@ -4849,7 +4901,7 @@
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G220" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="H220">
         <v>2500</v>
@@ -4857,7 +4909,7 @@
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G221" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -4865,7 +4917,7 @@
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G222" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="H222">
         <v>298200</v>
@@ -4873,7 +4925,7 @@
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G223" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H223">
         <v>20235</v>
@@ -4881,7 +4933,7 @@
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G224" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="H224">
         <v>1316.8</v>
@@ -4889,15 +4941,15 @@
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G225" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="H225" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G226" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H226">
         <v>561300</v>
@@ -4905,7 +4957,7 @@
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G227" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="H227">
         <v>20</v>
@@ -4913,7 +4965,7 @@
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G228" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="H228">
         <v>100</v>
@@ -4921,7 +4973,7 @@
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G229" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="H229">
         <v>175.5</v>
@@ -4929,7 +4981,7 @@
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G230" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="H230">
         <v>1260</v>
@@ -4937,18 +4989,18 @@
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G231" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="H231" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G232" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="H232" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4970,72 +5022,72 @@
     <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>511</v>
+    <row r="3" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="F3" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="H3" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="I3" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="J3" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="K3" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="L3" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="N3" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="O3" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="P3" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="Q3" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="R3" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="S3" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="T3" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="U3" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="V3" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
